--- a/prep_data/2025_punting_defense.xlsx
+++ b/prep_data/2025_punting_defense.xlsx
@@ -488,69 +488,69 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Las Vegas Raiders</t>
+          <t>New England Patriots</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C2" t="n">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="D2" t="n">
-        <v>2042</v>
+        <v>2534</v>
       </c>
       <c r="E2" t="n">
-        <v>43.45</v>
+        <v>43.69</v>
       </c>
       <c r="F2" t="n">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G2" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H2" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>39.11</v>
+        <v>35.36</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>New England Patriots</t>
+          <t>Las Vegas Raiders</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C3" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D3" t="n">
-        <v>2288</v>
+        <v>2343</v>
       </c>
       <c r="E3" t="n">
-        <v>44</v>
+        <v>44.21</v>
       </c>
       <c r="F3" t="n">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H3" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>34.81</v>
+        <v>39.92</v>
       </c>
     </row>
     <row r="4">
@@ -560,16 +560,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C4" t="n">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D4" t="n">
-        <v>2398</v>
+        <v>2617</v>
       </c>
       <c r="E4" t="n">
-        <v>45.25</v>
+        <v>45.12</v>
       </c>
       <c r="F4" t="n">
         <v>64</v>
@@ -578,13 +578,13 @@
         <v>2</v>
       </c>
       <c r="H4" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I4" t="n">
         <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>37</v>
+        <v>37.19</v>
       </c>
     </row>
     <row r="5">
@@ -594,16 +594,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C5" t="n">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="D5" t="n">
-        <v>1781</v>
+        <v>2154</v>
       </c>
       <c r="E5" t="n">
-        <v>45.67</v>
+        <v>45.83</v>
       </c>
       <c r="F5" t="n">
         <v>66</v>
@@ -612,217 +612,217 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>41.59</v>
+        <v>42.23</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Chicago Bears</t>
+          <t>Philadelphia Eagles</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C6" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="D6" t="n">
-        <v>1850</v>
+        <v>2540</v>
       </c>
       <c r="E6" t="n">
-        <v>46.25</v>
+        <v>46.18</v>
       </c>
       <c r="F6" t="n">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="G6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H6" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>40.98</v>
+        <v>40.16</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Los Angeles Chargers</t>
+          <t>New York Giants</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C7" t="n">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="D7" t="n">
-        <v>1998</v>
+        <v>2359</v>
       </c>
       <c r="E7" t="n">
-        <v>46.47</v>
+        <v>46.25</v>
       </c>
       <c r="F7" t="n">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H7" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>42.93</v>
+        <v>41.59</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Indianapolis Colts</t>
+          <t>Los Angeles Chargers</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C8" t="n">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="D8" t="n">
-        <v>1724</v>
+        <v>2230</v>
       </c>
       <c r="E8" t="n">
-        <v>46.59</v>
+        <v>46.46</v>
       </c>
       <c r="F8" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G8" t="n">
         <v>2</v>
       </c>
       <c r="H8" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>39.42</v>
+        <v>43.29</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Philadelphia Eagles</t>
+          <t>Chicago Bears</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C9" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D9" t="n">
-        <v>2097</v>
+        <v>2189</v>
       </c>
       <c r="E9" t="n">
-        <v>46.6</v>
+        <v>46.57</v>
       </c>
       <c r="F9" t="n">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="G9" t="n">
         <v>3</v>
       </c>
       <c r="H9" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>40.41</v>
+        <v>40.7</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>New York Giants</t>
+          <t>Kansas City Chiefs</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C10" t="n">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D10" t="n">
-        <v>2147</v>
+        <v>2474</v>
       </c>
       <c r="E10" t="n">
-        <v>46.67</v>
+        <v>46.68</v>
       </c>
       <c r="F10" t="n">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="G10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>41.76</v>
+        <v>42.7</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Cincinnati Bengals</t>
+          <t>Indianapolis Colts</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C11" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D11" t="n">
-        <v>1588</v>
+        <v>1917</v>
       </c>
       <c r="E11" t="n">
-        <v>46.71</v>
+        <v>46.76</v>
       </c>
       <c r="F11" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H11" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>40.03</v>
+        <v>40.21</v>
       </c>
     </row>
     <row r="12">
@@ -832,260 +832,260 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C12" t="n">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D12" t="n">
-        <v>1827</v>
+        <v>2058</v>
       </c>
       <c r="E12" t="n">
-        <v>46.85</v>
+        <v>46.77</v>
       </c>
       <c r="F12" t="n">
         <v>65</v>
       </c>
       <c r="G12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H12" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I12" t="n">
         <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>39</v>
+        <v>39.11</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Dallas Cowboys</t>
+          <t>Tampa Bay Buccaneers</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C13" t="n">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="D13" t="n">
-        <v>1976</v>
+        <v>2293</v>
       </c>
       <c r="E13" t="n">
-        <v>47.05</v>
+        <v>46.8</v>
       </c>
       <c r="F13" t="n">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H13" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>42.65</v>
+        <v>39.37</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Buffalo Bills</t>
+          <t>Atlanta Falcons</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C14" t="n">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D14" t="n">
-        <v>2402</v>
+        <v>2297</v>
       </c>
       <c r="E14" t="n">
-        <v>47.1</v>
+        <v>46.88</v>
       </c>
       <c r="F14" t="n">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="G14" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>42.73</v>
+        <v>43.57</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>New York Jets</t>
+          <t>Cincinnati Bengals</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C15" t="n">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="D15" t="n">
-        <v>2885</v>
+        <v>1924</v>
       </c>
       <c r="E15" t="n">
-        <v>47.3</v>
+        <v>46.93</v>
       </c>
       <c r="F15" t="n">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="G15" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H15" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>38.98</v>
+        <v>39.83</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Atlanta Falcons</t>
+          <t>Seattle Seahawks</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="D16" t="n">
-        <v>2081</v>
+        <v>3051</v>
       </c>
       <c r="E16" t="n">
-        <v>47.3</v>
+        <v>46.94</v>
       </c>
       <c r="F16" t="n">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G16" t="n">
+        <v>4</v>
+      </c>
+      <c r="H16" t="n">
+        <v>28</v>
+      </c>
+      <c r="I16" t="n">
         <v>1</v>
       </c>
-      <c r="H16" t="n">
-        <v>22</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
       <c r="J16" t="n">
-        <v>44.25</v>
+        <v>38.88</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Tampa Bay Buccaneers</t>
+          <t>Jacksonville Jaguars</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C17" t="n">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="D17" t="n">
-        <v>1987</v>
+        <v>2550</v>
       </c>
       <c r="E17" t="n">
-        <v>47.31</v>
+        <v>47.22</v>
       </c>
       <c r="F17" t="n">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H17" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>39.76</v>
+        <v>40.19</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Kansas City Chiefs</t>
+          <t>New York Jets</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C18" t="n">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="D18" t="n">
-        <v>2181</v>
+        <v>3035</v>
       </c>
       <c r="E18" t="n">
-        <v>47.41</v>
+        <v>47.42</v>
       </c>
       <c r="F18" t="n">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H18" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>43.5</v>
+        <v>39.36</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Seattle Seahawks</t>
+          <t>Houston Texans</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C19" t="n">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="D19" t="n">
-        <v>2668</v>
+        <v>3415</v>
       </c>
       <c r="E19" t="n">
-        <v>47.64</v>
+        <v>47.43</v>
       </c>
       <c r="F19" t="n">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="G19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H19" t="n">
         <v>23</v>
@@ -1094,449 +1094,449 @@
         <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>39.77</v>
+        <v>40.62</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Los Angeles Rams</t>
+          <t>Cleveland Browns</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C20" t="n">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="D20" t="n">
-        <v>2243</v>
+        <v>3424</v>
       </c>
       <c r="E20" t="n">
-        <v>47.72</v>
+        <v>47.56</v>
       </c>
       <c r="F20" t="n">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="G20" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H20" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>42.7</v>
+        <v>42.19</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Cleveland Browns</t>
+          <t>Dallas Cowboys</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C21" t="n">
+        <v>45</v>
+      </c>
+      <c r="D21" t="n">
+        <v>2143</v>
+      </c>
+      <c r="E21" t="n">
+        <v>47.62</v>
+      </c>
+      <c r="F21" t="n">
         <v>65</v>
       </c>
-      <c r="D21" t="n">
-        <v>3104</v>
-      </c>
-      <c r="E21" t="n">
-        <v>47.75</v>
-      </c>
-      <c r="F21" t="n">
-        <v>77</v>
-      </c>
       <c r="G21" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H21" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="n">
-        <v>42.17</v>
+        <v>43.5</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Minnesota Vikings</t>
+          <t>Buffalo Bills</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C22" t="n">
         <v>56</v>
       </c>
       <c r="D22" t="n">
-        <v>2688</v>
+        <v>2668</v>
       </c>
       <c r="E22" t="n">
-        <v>48</v>
+        <v>47.64</v>
       </c>
       <c r="F22" t="n">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H22" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>41.46</v>
+        <v>43.32</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>San Francisco 49ers</t>
+          <t>Minnesota Vikings</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C23" t="n">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="D23" t="n">
-        <v>2256</v>
+        <v>2821</v>
       </c>
       <c r="E23" t="n">
-        <v>48</v>
+        <v>47.81</v>
       </c>
       <c r="F23" t="n">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="G23" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H23" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>39.19</v>
+        <v>41.41</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Detroit Lions</t>
+          <t>Los Angeles Rams</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C24" t="n">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D24" t="n">
-        <v>2357</v>
+        <v>2633</v>
       </c>
       <c r="E24" t="n">
-        <v>48.1</v>
+        <v>47.87</v>
       </c>
       <c r="F24" t="n">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="G24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H24" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>42.63</v>
+        <v>42.65</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Houston Texans</t>
+          <t>San Francisco 49ers</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C25" t="n">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="D25" t="n">
-        <v>2987</v>
+        <v>2493</v>
       </c>
       <c r="E25" t="n">
-        <v>48.18</v>
+        <v>47.94</v>
       </c>
       <c r="F25" t="n">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="G25" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H25" t="n">
         <v>20</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>40.78</v>
+        <v>39.48</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Jacksonville Jaguars</t>
+          <t>Green Bay Packers</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C26" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D26" t="n">
-        <v>2361</v>
+        <v>2453</v>
       </c>
       <c r="E26" t="n">
-        <v>48.18</v>
+        <v>48.1</v>
       </c>
       <c r="F26" t="n">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G26" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H26" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>40.88</v>
+        <v>42.88</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Green Bay Packers</t>
+          <t>Washington Commanders</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C27" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D27" t="n">
-        <v>2234</v>
+        <v>2026</v>
       </c>
       <c r="E27" t="n">
-        <v>48.57</v>
+        <v>48.24</v>
       </c>
       <c r="F27" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G27" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H27" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>42.78</v>
+        <v>38.86</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Pittsburgh Steelers</t>
+          <t>Detroit Lions</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C28" t="n">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="D28" t="n">
-        <v>1896</v>
+        <v>2656</v>
       </c>
       <c r="E28" t="n">
-        <v>48.62</v>
+        <v>48.29</v>
       </c>
       <c r="F28" t="n">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="G28" t="n">
         <v>5</v>
       </c>
       <c r="H28" t="n">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>41.33</v>
+        <v>42.35</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Washington Commanders</t>
+          <t>Carolina Panthers</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C29" t="n">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="D29" t="n">
-        <v>1757</v>
+        <v>2136</v>
       </c>
       <c r="E29" t="n">
-        <v>48.81</v>
+        <v>48.55</v>
       </c>
       <c r="F29" t="n">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G29" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>40.39</v>
+        <v>44.61</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Carolina Panthers</t>
+          <t>Pittsburgh Steelers</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C30" t="n">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="D30" t="n">
-        <v>1907</v>
+        <v>2249</v>
       </c>
       <c r="E30" t="n">
-        <v>48.9</v>
+        <v>48.89</v>
       </c>
       <c r="F30" t="n">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H30" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>45.72</v>
+        <v>41.89</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Denver Broncos</t>
+          <t>Arizona Cardinals</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C31" t="n">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="D31" t="n">
-        <v>3545</v>
+        <v>1881</v>
       </c>
       <c r="E31" t="n">
-        <v>49.24</v>
+        <v>49.5</v>
       </c>
       <c r="F31" t="n">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="G31" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H31" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="I31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>40.3</v>
+        <v>41.47</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Arizona Cardinals</t>
+          <t>Denver Broncos</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C32" t="n">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="D32" t="n">
-        <v>1838</v>
+        <v>3914</v>
       </c>
       <c r="E32" t="n">
-        <v>49.68</v>
+        <v>49.54</v>
       </c>
       <c r="F32" t="n">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="G32" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="H32" t="n">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32" t="n">
-        <v>41.43</v>
+        <v>40.71</v>
       </c>
     </row>
     <row r="33">
@@ -1546,31 +1546,31 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C33" t="n">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="D33" t="n">
-        <v>2226</v>
+        <v>2665</v>
       </c>
       <c r="E33" t="n">
-        <v>50.59</v>
+        <v>50.28</v>
       </c>
       <c r="F33" t="n">
         <v>72</v>
       </c>
       <c r="G33" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H33" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.89</v>
+        <v>42.42</v>
       </c>
     </row>
   </sheetData>
